--- a/springboot/springnote.xlsx
+++ b/springboot/springnote.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,6 +172,15 @@
   <si>
     <t>载入在tomcat的web容器之后
 servletcontext控制tomcat的WEB容器与Spring中的servlet容器交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpringAop核心处理类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JdkDynamicAopProxy
+CglibAopProxy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -218,7 +227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -241,11 +250,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -256,6 +276,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -560,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -751,6 +775,14 @@
         <v>38</v>
       </c>
     </row>
+    <row r="15" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="B15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/springboot/springnote.xlsx
+++ b/springboot/springnote.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,6 +181,14 @@
   <si>
     <t>JdkDynamicAopProxy
 CglibAopProxy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpringWeb转发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DispatcherServlet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -227,7 +235,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -250,22 +258,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -276,10 +273,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -298,7 +291,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -340,7 +333,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,7 +368,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -584,7 +577,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
@@ -776,12 +769,26 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/springboot/springnote.xlsx
+++ b/springboot/springnote.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,6 +185,19 @@
   </si>
   <si>
     <t>SpringWeb转发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpringBoot默认applicationContext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnnotationConfigServletWebServerApplicationContext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化时加载AnnotatedBeanDefinitionReader
+ClassPathBeanDefinitionScanner</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -262,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -273,6 +286,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -577,17 +596,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="34.75" customWidth="1"/>
+    <col min="2" max="2" width="35.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.875" customWidth="1"/>
     <col min="4" max="4" width="44.25" customWidth="1"/>
     <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -610,7 +629,9 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -625,7 +646,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
@@ -638,7 +661,9 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -651,7 +676,9 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
@@ -662,7 +689,9 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
@@ -673,7 +702,9 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
@@ -684,7 +715,9 @@
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
@@ -695,7 +728,9 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -710,7 +745,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -721,7 +758,9 @@
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
       <c r="B11" s="5" t="s">
         <v>27</v>
       </c>
@@ -732,7 +771,9 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
       <c r="B12" s="5" t="s">
         <v>29</v>
       </c>
@@ -743,7 +784,9 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
       <c r="B13" s="5" t="s">
         <v>31</v>
       </c>
@@ -754,7 +797,9 @@
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
       <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
@@ -769,7 +814,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
       <c r="B15" s="5" t="s">
         <v>39</v>
       </c>
@@ -780,15 +827,32 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
       <c r="B16" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/springboot/springnote.xlsx
+++ b/springboot/springnote.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,20 +188,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SpringBoot默认applicationContext</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnnotationConfigServletWebServerApplicationContext</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>初始化时加载AnnotatedBeanDefinitionReader
 ClassPathBeanDefinitionScanner</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DispatcherServlet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpringBoot web默认applicationContext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnnotationConfigServletWebServerApplicationContext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpringBoot默认applicationContext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnnotationConfigApplicationContext</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -834,7 +842,7 @@
         <v>41</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -844,15 +852,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/springboot/springnote.xlsx
+++ b/springboot/springnote.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,6 +210,14 @@
   </si>
   <si>
     <t>AnnotationConfigApplicationContext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnnotationConfigUtils.applyScopedProxyMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择代理模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -283,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -299,6 +307,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -604,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -875,6 +886,19 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/springboot/springnote.xlsx
+++ b/springboot/springnote.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="springnote模块" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="110">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BeanDefinition定义、BeanDefinition载入与解析，BeanDefinition注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三个过程解耦，有助于灵活进行裁剪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,6 +215,255 @@
   </si>
   <si>
     <t>选择代理模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InputStreamSource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jar以及class文件路径加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源存储对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceLoader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储ResourceLoader加载的文件路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MetadataReader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元数据访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourcePatternResolver资源模式分解器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource保存文件路径等基本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型筛选器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对资源数据访问提供类型筛选与匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeFilter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例子接口或实现类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoConfigurationExcludeFilter匹配自动配置相关类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供资源数据访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClassVisitor提供Class元数据信息
+AnnotationMetadata提供注解信息元数据访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnnotatedTypeMetadata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供Annotation类型元数据访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供Class元数据访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClassMetadata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SimpleMetadataReader简单元数据访问通道，返回ClassMetadata等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnnotationMetadata提供注解信息元数据访问
+MethodMetadata提供方法信息元数据访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASM扫描class文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConditionEvaluator（类）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件注解实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanDefinition定位、BeanDefinition载入与解析，BeanDefinition注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值位资源路径Resource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourcePatternResolver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将Class资源转换为BeanDefinition数据结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring容器初始化-Bean资源载入与解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScannedGenericBeanDefinition（载入）与MetadataReader解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScopeMetadata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述元数据作用域（注解作用域）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring容器初始化-Bean资源载入与解析（后置处理器）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClassPathBeanDefinitionScanner.postProcessBeanDefinition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懒加载、自动注入方式\InitMethodName\DestroyMethodName等设置默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring容器初始化-Bean资源载入与解析（公共注解处理）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClassPathBeanDefinitionScanner.doScan-&gt;
+AnnotationConfigUtils.processCommonDefinitionAnnotations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如自定义懒加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClassPathBeanDefinitionScanner.checkCandidate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring容器初始化-Bean资源载入与解析（冲突检测）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bean注册冲突提前检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClassPathBeanDefinitionScanner.registerBeanDefinition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bean载入ConcurrentMap容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring容器初始化-Bean资源载入与解析（载入容器）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClassPathBeanDefinitionScanner.doScan-&gt;
+AnnotationConfigUtils.applyScopedProxyMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据scope注解选择是否进行动态代理，返回BeanDefinitionHolder（包含Bean,Bean名称与别名）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring容器初始化-Bean资源载入与解析（Scope代理处理）：结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanFactoryPostProcessor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bean后置处理器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring容器初始化-Bean资源定位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring容器初始化-起点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbstractApplicationContext.refresh-&gt;
+invokeBeanFactoryPostProcessors(beanFactory)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanFactory后置处理器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -225,7 +471,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +490,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -291,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -311,6 +572,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -615,18 +879,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.875" customWidth="1"/>
-    <col min="4" max="4" width="44.25" customWidth="1"/>
+    <col min="2" max="2" width="55.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -687,10 +951,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -699,10 +963,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -712,10 +976,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -725,10 +989,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -738,10 +1002,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -751,16 +1015,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -768,10 +1032,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -781,10 +1045,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -794,10 +1058,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -807,10 +1071,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -820,16 +1084,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -837,10 +1101,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -850,10 +1114,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -863,13 +1127,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2"/>
     </row>
@@ -878,10 +1142,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -891,17 +1155,420 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="62.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/springboot/springnote.xlsx
+++ b/springboot/springnote.xlsx
@@ -74,43 +74,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IOC容器之bean注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DefaultDocumentLoader</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>得到XML中document对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeanDefinitionRegistry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeanDefinitionReader</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IO读取底层接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Resource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bean读取底层接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bean定义底层接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bean载入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -123,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bean定义处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BeanDefinitionParserDelegate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -380,19 +340,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Spring容器初始化-Bean资源载入与解析（后置处理器）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ClassPathBeanDefinitionScanner.postProcessBeanDefinition</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>懒加载、自动注入方式\InitMethodName\DestroyMethodName等设置默认值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spring容器初始化-Bean资源载入与解析（公共注解处理）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -409,10 +361,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Spring容器初始化-Bean资源载入与解析（冲突检测）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Bean注册冲突提前检查</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -425,7 +373,56 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Spring容器初始化-Bean资源载入与解析（载入容器）</t>
+    <t>根据scope注解选择是否进行动态代理，返回BeanDefinitionHolder（包含Bean,Bean名称与别名）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanFactoryPostProcessor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bean后置处理器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring容器初始化-Bean资源定位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbstractApplicationContext.refresh-&gt;
+invokeBeanFactoryPostProcessors(beanFactory)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanFactory后置处理器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanDefinitionRegistry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefaultDocumentLoader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到XML中document对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOC容器之bean注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bean定义底层接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO读取底层接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bean载入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -434,23 +431,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>根据scope注解选择是否进行动态代理，返回BeanDefinitionHolder（包含Bean,Bean名称与别名）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Spring容器初始化-Bean资源载入与解析（Scope代理处理）：结束</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BeanFactoryPostProcessor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bean后置处理器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spring容器初始化-Bean资源定位</t>
+    <t>Spring容器初始化-Bean资源载入与解析（载入容器）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -458,12 +443,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AbstractApplicationContext.refresh-&gt;
-invokeBeanFactoryPostProcessors(beanFactory)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeanFactory后置处理器</t>
+    <t>Spring容器初始化-Bean资源载入与解析（冲突检测）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring容器初始化-Bean资源载入与解析（公共注解处理）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring容器初始化-Bean资源载入与解析（后置处理器）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bean读取底层接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bean定义处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanDefinitionReader</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -881,15 +881,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.5" customWidth="1"/>
+    <col min="3" max="3" width="52" customWidth="1"/>
     <col min="4" max="4" width="55.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -951,7 +951,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
@@ -963,10 +963,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -976,10 +976,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -989,10 +989,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1002,10 +1002,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1015,27 +1015,27 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1045,10 +1045,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1058,10 +1058,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1071,10 +1071,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1084,16 +1084,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -1101,10 +1101,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1114,10 +1114,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1127,13 +1127,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E17" s="2"/>
     </row>
@@ -1142,10 +1142,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1155,10 +1155,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1168,13 +1168,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="E20" s="2"/>
     </row>
@@ -1183,43 +1183,43 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E23" s="2"/>
     </row>
@@ -1228,13 +1228,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E24" s="2"/>
     </row>
@@ -1243,13 +1243,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -1258,13 +1258,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E26" s="2"/>
     </row>
@@ -1273,13 +1273,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="E27" s="2"/>
     </row>
@@ -1309,131 +1309,131 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1442,10 +1442,10 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1454,11 +1454,11 @@
     <row r="10" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>

--- a/springboot/springnote.xlsx
+++ b/springboot/springnote.xlsx
@@ -888,7 +888,7 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.5" customWidth="1"/>
+    <col min="2" max="2" width="40.625" customWidth="1"/>
     <col min="3" max="3" width="52" customWidth="1"/>
     <col min="4" max="4" width="55.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
@@ -1027,7 +1027,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
         <v>25</v>
       </c>

--- a/springboot/springnote.xlsx
+++ b/springboot/springnote.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="115">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -316,35 +316,136 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>将Class资源转换为BeanDefinition数据结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring容器初始化-Bean资源载入与解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScopeMetadata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述元数据作用域（注解作用域）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懒加载、自动注入方式\InitMethodName\DestroyMethodName等设置默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如自定义懒加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClassPathBeanDefinitionScanner.checkCandidate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bean注册冲突提前检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanFactoryPostProcessor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanFactory后置处理器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanDefinitionRegistry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefaultDocumentLoader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到XML中document对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOC容器之bean注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bean定义底层接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO读取底层接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bean载入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClassPathBeanDefinitionScanner.doScan-&gt;
+AnnotationConfigUtils.applyScopedProxyMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring容器初始化-Bean资源载入与解析（载入容器）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring容器初始化-起点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring容器初始化-Bean资源载入与解析（冲突检测）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring容器初始化-Bean资源载入与解析（公共注解处理）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring容器初始化-Bean资源载入与解析（后置处理器）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bean读取底层接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bean定义处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanDefinitionReader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring容器初始化-Bean资源载入与解析（Scope代理处理）：结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bean工厂后置处理器，工厂初始化后调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClassPathBeanDefinitionScanner.postProcessBeanDefinition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bean注册后置处理器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanPostProcessor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScannedGenericBeanDefinition（载入）与MetadataReader解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ResourcePatternResolver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将Class资源转换为BeanDefinition数据结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spring容器初始化-Bean资源载入与解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ScannedGenericBeanDefinition（载入）与MetadataReader解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ScopeMetadata</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述元数据作用域（注解作用域）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClassPathBeanDefinitionScanner.postProcessBeanDefinition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>懒加载、自动注入方式\InitMethodName\DestroyMethodName等设置默认值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -353,15 +454,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如自定义懒加载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClassPathBeanDefinitionScanner.checkCandidate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bean注册冲突提前检查</t>
+    <t>1.MapperScannerConfigurer （mybatis）
+2.SharedMetadataReaderFactoryContextInitializer
+3.ConfigurationClassPostProcessor(容器资源载入)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbstractApplicationContext.refresh-&gt;
+invokeBeanFactoryPostProcessors(beanFactory)
+-&gt;invokeBeanDefinitionRegistryPostProcessors
+ConfigurationClassPostProcessor—&gt;
+ConfigurationClassParser.parse</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -377,93 +480,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BeanFactoryPostProcessor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bean后置处理器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Spring容器初始化-Bean资源定位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Spring容器初始化-依赖注入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>AbstractApplicationContext.refresh-&gt;
-invokeBeanFactoryPostProcessors(beanFactory)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeanFactory后置处理器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeanDefinitionRegistry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DefaultDocumentLoader</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>得到XML中document对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IOC容器之bean注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bean定义底层接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IO读取底层接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bean载入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClassPathBeanDefinitionScanner.doScan-&gt;
-AnnotationConfigUtils.applyScopedProxyMode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spring容器初始化-Bean资源载入与解析（Scope代理处理）：结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spring容器初始化-Bean资源载入与解析（载入容器）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spring容器初始化-起点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spring容器初始化-Bean资源载入与解析（冲突检测）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spring容器初始化-Bean资源载入与解析（公共注解处理）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spring容器初始化-Bean资源载入与解析（后置处理器）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bean读取底层接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bean定义处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeanDefinitionReader</t>
+registerBeanPostProcessors-&gt;
+DefaultListableFactory.getbean-&gt;
+AbstractBeanFactory.doGetBean</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,7 +553,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -548,11 +576,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -575,6 +614,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -879,16 +925,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" customWidth="1"/>
+    <col min="2" max="2" width="56.625" customWidth="1"/>
     <col min="3" max="3" width="52" customWidth="1"/>
     <col min="4" max="4" width="55.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
@@ -963,10 +1009,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -976,10 +1022,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -989,7 +1035,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
@@ -1002,7 +1048,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
@@ -1015,10 +1061,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>22</v>
@@ -1032,7 +1078,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>16</v>
@@ -1045,7 +1091,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>17</v>
@@ -1163,18 +1209,18 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E20" s="2"/>
     </row>
@@ -1183,10 +1229,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>72</v>
@@ -1198,13 +1244,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E22" s="2"/>
     </row>
@@ -1213,13 +1259,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E23" s="2"/>
     </row>
@@ -1228,13 +1274,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E24" s="2"/>
     </row>
@@ -1243,13 +1289,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -1258,13 +1304,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="E26" s="2"/>
     </row>
@@ -1273,15 +1319,23 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="B28" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1295,13 +1349,13 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="2" max="2" width="35.625" customWidth="1"/>
     <col min="3" max="3" width="62.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.875" bestFit="1" customWidth="1"/>
@@ -1442,32 +1496,38 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" s="11" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="10"/>
+        <v>81</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>107</v>
+      </c>
       <c r="D10" s="10" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>

--- a/springboot/springnote.xlsx
+++ b/springboot/springnote.xlsx
@@ -484,14 +484,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Spring容器初始化-依赖注入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AbstractApplicationContext.refresh-&gt;
 registerBeanPostProcessors-&gt;
 DefaultListableFactory.getbean-&gt;
 AbstractBeanFactory.doGetBean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring容器初始化-依赖注入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -927,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1331,10 +1331,10 @@
     </row>
     <row r="28" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="B28" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="14" t="s">
         <v>113</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/springboot/springnote.xlsx
+++ b/springboot/springnote.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="120">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -492,6 +492,26 @@
   </si>
   <si>
     <t>Spring容器初始化-依赖注入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InstantiationStrategy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实例化策略接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SimpleInstantiationStrategy单例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConstructorResolver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析构造函数委托类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -927,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1348,8 +1368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1533,17 +1553,27 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>

--- a/springboot/springnote.xlsx
+++ b/springboot/springnote.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="124">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -512,6 +512,24 @@
   </si>
   <si>
     <t>解析构造函数委托类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanDefinitionRegistry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bean定义信息保存，后续用于bean实例化
+执行时机：
+在所有bean定义信息将要被加载，bean实例还未创建的；优先于BeanFactoryPostProcessor执行；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanDefinitionRegistryPostProcessor给容器中再额外添加一些组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanDefinitionRegistryPostProcessor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -611,7 +629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -640,6 +658,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1369,7 +1390,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1377,7 +1398,7 @@
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.625" customWidth="1"/>
     <col min="3" max="3" width="62.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.5" customWidth="1"/>
     <col min="5" max="5" width="34.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1577,19 +1598,27 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="15" t="s">
+        <v>122</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>

--- a/springboot/springnote.xlsx
+++ b/springboot/springnote.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="126">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -515,10 +515,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BeanDefinitionRegistry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Bean定义信息保存，后续用于bean实例化
 执行时机：
 在所有bean定义信息将要被加载，bean实例还未创建的；优先于BeanFactoryPostProcessor执行；</t>
@@ -530,6 +526,19 @@
   </si>
   <si>
     <t>BeanDefinitionRegistryPostProcessor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BeanDefinitionRegistry
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnnotationConfigRegistry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注解扫描与注册定义</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -968,7 +977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -1389,8 +1398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1600,12 +1609,12 @@
     </row>
     <row r="14" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
-        <v>120</v>
+      <c r="B14" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1613,20 +1622,24 @@
     <row r="15" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>

--- a/springboot/springnote.xlsx
+++ b/springboot/springnote.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="springnote模块" sheetId="3" r:id="rId2"/>
+    <sheet name="springboot结构解析" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="145">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -539,6 +540,82 @@
   </si>
   <si>
     <t>注解扫描与注册定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类功能描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能模块描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖注入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContextAnnotationAutowireCandidateResolver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutowireCandidateResolver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖注入策略接口的完整实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖注入策略实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comparator&lt;T&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注解处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnnotationAwareOrderComparator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理order的实现类和@order与@Priority注解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanDefinition相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanDefinitionLoader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanDefinition加载，实例化时添加ExcludeFilter过滤指定Bean</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -975,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1259,131 +1336,138 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="8">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="8"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C21" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="8">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="8">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A24" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="8">
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C25" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="8">
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A26" s="8">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A28" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D28" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="B28" s="13" t="s">
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="B29" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C29" s="14" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1398,7 +1482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -1703,4 +1787,237 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/springboot/springnote.xlsx
+++ b/springboot/springnote.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="160">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -443,10 +443,6 @@
   </si>
   <si>
     <t>ScannedGenericBeanDefinition（载入）与MetadataReader解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResourcePatternResolver</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -458,6 +454,149 @@
     <t>1.MapperScannerConfigurer （mybatis）
 2.SharedMetadataReaderFactoryContextInitializer
 3.ConfigurationClassPostProcessor(容器资源载入)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClassPathBeanDefinitionScanner.registerBeanDefinition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bean载入ConcurrentMap容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据scope注解选择是否进行动态代理，返回BeanDefinitionHolder（包含Bean,Bean名称与别名）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring容器初始化-Bean资源定位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring容器初始化-依赖注入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InstantiationStrategy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实例化策略接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SimpleInstantiationStrategy单例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConstructorResolver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析构造函数委托类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bean定义信息保存，后续用于bean实例化
+执行时机：
+在所有bean定义信息将要被加载，bean实例还未创建的；优先于BeanFactoryPostProcessor执行；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanDefinitionRegistryPostProcessor给容器中再额外添加一些组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanDefinitionRegistryPostProcessor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BeanDefinitionRegistry
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnnotationConfigRegistry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注解扫描与注册定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类功能描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能模块描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖注入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContextAnnotationAutowireCandidateResolver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutowireCandidateResolver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖注入策略接口的完整实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖注入策略实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comparator&lt;T&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注解处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnnotationAwareOrderComparator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理order的实现类和@order与@Priority注解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanDefinitionLoader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanDefinition加载，实例化时添加ExcludeFilter过滤指定Bean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourcePatternResolver</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -469,60 +608,65 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ClassPathBeanDefinitionScanner.registerBeanDefinition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bean载入ConcurrentMap容器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据scope注解选择是否进行动态代理，返回BeanDefinitionHolder（包含Bean,Bean名称与别名）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spring容器初始化-Bean资源定位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AbstractApplicationContext.refresh-&gt;
-registerBeanPostProcessors-&gt;
+    <t>BeanDefinitionBuilder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanDefinitionRegistry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanDefinition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanDefinitionDefaults</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnnotatedBeanDefinition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanDefinitionResource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConfigurationClassParser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConfigurationClass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理@import注解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConfigurationClassBeanDefinition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbstractApplicationContext.finishBeanFactoryInitialization
 DefaultListableFactory.getbean-&gt;
 AbstractBeanFactory.doGetBean</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Spring容器初始化-依赖注入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InstantiationStrategy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实例化策略接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SimpleInstantiationStrategy单例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConstructorResolver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解析构造函数委托类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bean定义信息保存，后续用于bean实例化
-执行时机：
-在所有bean定义信息将要被加载，bean实例还未创建的；优先于BeanFactoryPostProcessor执行；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeanDefinitionRegistryPostProcessor给容器中再额外添加一些组件</t>
+    <t>bean数据定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanDefinitionHolder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanPostProcessor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConfigurationClassPostProcessor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -530,92 +674,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">BeanDefinitionRegistry
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnnotationConfigRegistry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注解扫描与注册定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>核心类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类功能描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能模块描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>核心接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>依赖注入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ContextAnnotationAutowireCandidateResolver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AutowireCandidateResolver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>依赖注入策略接口的完整实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>依赖注入策略实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comparator&lt;T&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注解处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnnotationAwareOrderComparator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理order的实现类和@order与@Priority注解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeanDefinition相关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeanDefinitionLoader</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeanDefinition加载，实例化时添加ExcludeFilter过滤指定Bean</t>
+    <t>Bean定义注册表，包含注册bean，remove bean，判断是否包含bean等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -677,7 +736,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -700,22 +759,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -732,17 +780,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1052,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1324,7 +1365,7 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="8">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1336,140 +1377,138 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="8"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="2"/>
+    <row r="20" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="8">
-        <v>19</v>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="6">
+        <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="8">
-        <v>20</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="8">
-        <v>21</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="8">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="8">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="8">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A27" s="8">
-        <v>25</v>
+      <c r="A27" s="6">
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>110</v>
-      </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A28" s="8">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>99</v>
+    <row r="28" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>111</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="B29" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>113</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1639,19 +1678,19 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" s="11" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10" t="s">
+    <row r="10" spans="1:6" s="10" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
@@ -1668,13 +1707,13 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1682,11 +1721,11 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1694,11 +1733,11 @@
     <row r="14" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1706,11 +1745,11 @@
     <row r="15" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="15" t="s">
-        <v>121</v>
+      <c r="D15" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1718,11 +1757,11 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1791,57 +1830,57 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.375" customWidth="1"/>
     <col min="5" max="5" width="47.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1850,7 +1889,9 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
@@ -1859,7 +1900,9 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
@@ -1868,27 +1911,21 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>135</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>136</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -1896,7 +1933,9 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
@@ -1905,7 +1944,9 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
@@ -1914,7 +1955,9 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
@@ -1923,7 +1966,9 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
@@ -1932,8 +1977,12 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -1941,25 +1990,21 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
-        <v>139</v>
-      </c>
+      <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
-        <v>138</v>
-      </c>
+      <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F13" t="s">
-        <v>141</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -1967,7 +2012,9 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
@@ -1976,7 +2023,9 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
@@ -1984,16 +2033,22 @@
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2002,7 +2057,9 @@
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -2011,10 +2068,156 @@
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/springboot/springnote.xlsx
+++ b/springboot/springnote.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="161">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -675,6 +675,10 @@
   </si>
   <si>
     <t>Bean定义注册表，包含注册bean，remove bean，判断是否包含bean等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MergedBeanDefinition</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1095,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1830,10 +1834,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1945,7 +1949,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1956,7 +1960,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1967,7 +1971,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1978,11 +1982,9 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>151</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -1991,9 +1993,11 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F12" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -2002,7 +2006,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2013,7 +2017,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -2024,7 +2028,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2033,13 +2037,11 @@
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
-        <v>159</v>
-      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -2047,10 +2049,12 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -2058,7 +2062,7 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>81</v>
+        <v>156</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2069,7 +2073,7 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -2077,30 +2081,32 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>134</v>
-      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>133</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -2150,28 +2156,28 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
-      <c r="B27" s="2" t="s">
-        <v>136</v>
-      </c>
+      <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F27" t="s">
-        <v>138</v>
-      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28" t="s">
+        <v>138</v>
+      </c>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
@@ -2219,6 +2225,15 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/springboot/springnote.xlsx
+++ b/springboot/springnote.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="165">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -585,14 +585,6 @@
   </si>
   <si>
     <t>处理order的实现类和@order与@Priority注解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeanDefinitionLoader</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeanDefinition加载，实例化时添加ExcludeFilter过滤指定Bean</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -608,26 +600,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BeanDefinitionBuilder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeanDefinitionRegistry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeanDefinition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeanDefinitionDefaults</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnnotatedBeanDefinition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BeanDefinitionResource</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -641,10 +613,6 @@
   </si>
   <si>
     <t>处理@import注解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConfigurationClassBeanDefinition</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -679,6 +647,66 @@
   </si>
   <si>
     <t>MergedBeanDefinition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanDefinitionLoader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.BeanDefinition资源扫描加载，引入了
+AnnotatedBeanDefinitionReader
+XmlBeanDefinitionReader
+ClassPathBeanDefinitionScanner等
+2.类型过滤，实例化时添加ExcludeFilter过滤指定Bean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanDefinitionCustomizer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanDefinitionBuilder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构建BeanDefinition的工具类
+设置beanName，设置属性名称，设置父类名称，设置工厂方法，依赖注入模式等等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanDefinitionRegistry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供Bean注册，移除，获取，数量统计等基础功能功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefaultListableBeanFactory
+GenericApplicationContext
+SimpleBeanDefinitionRegistry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanDefinitionDefaults</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供Bean元数据信息（属性，方法，初始化方法，销毁方法等），作用域，加载方式，依赖关系，是否依赖注入等信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanDefinition-&gt;AnnotatedBeanDefinition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChildBeanDefinition(必须有父类)
+RootBeanDefinition(必须没有父类)
+GenericBeanDefinition（与AbstractBeanDefinition类似）
+AnnotatedGenericBeanDefinition：存储@Configuration注解注释的类
+ScannedGenericBeanDefinition：存储@Component、@Service、@Controller等注解注释的类
+ConfigurationClassBeanDefinition:存储用户自定义Bean，对应@Bean注解</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1099,7 +1127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -1389,7 +1417,7 @@
         <v>92</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>82</v>
@@ -1404,7 +1432,7 @@
         <v>110</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>72</v>
@@ -1509,7 +1537,7 @@
         <v>111</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1836,8 +1864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1873,41 +1901,47 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>140</v>
+        <v>153</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F3" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -1916,20 +1950,24 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="135" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -1938,7 +1976,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1949,7 +1987,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1960,7 +1998,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1970,9 +2008,7 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>152</v>
-      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
@@ -1982,7 +2018,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1993,10 +2029,10 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -2006,7 +2042,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2017,7 +2053,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -2053,7 +2089,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="G17" s="2"/>
     </row>
@@ -2062,7 +2098,7 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2084,7 +2120,7 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>

--- a/springboot/springnote.xlsx
+++ b/springboot/springnote.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="180">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -600,22 +600,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BeanDefinitionResource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConfigurationClassParser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConfigurationClass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理@import注解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AbstractApplicationContext.finishBeanFactoryInitialization
 DefaultListableFactory.getbean-&gt;
 AbstractBeanFactory.doGetBean</t>
@@ -623,30 +607,6 @@
   </si>
   <si>
     <t>bean数据定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeanDefinitionHolder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeanPostProcessor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConfigurationClassPostProcessor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeanDefinitionRegistryPostProcessor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bean定义注册表，包含注册bean，remove bean，判断是否包含bean等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MergedBeanDefinition</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -662,10 +622,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BeanDefinitionCustomizer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BeanDefinitionBuilder</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -686,10 +642,6 @@
     <t>DefaultListableBeanFactory
 GenericApplicationContext
 SimpleBeanDefinitionRegistry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeanDefinitionDefaults</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -709,12 +661,123 @@
 ConfigurationClassBeanDefinition:存储用户自定义Bean，对应@Bean注解</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>BeanDefinitionCustomizer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数方式创建Bean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanDefinitionDefaults</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储Dean默认加载值，如lazyInit，dependencyCheck，autowireMode等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanDefinitionHolder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanDefinition的持有者，提供重要变量存取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanDefinitionResource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捆版resource与BeanDefinition
+提供判断资源是否存在，是否可读，获取inputstream等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConfigurationClass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代表一个包含configuration注解的类，以及配置类中Bean集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConfigurationClassPostProcessor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanPostProcessor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring后置处理器-动态修改BeanDefinition对象 执行顺序2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring后置处理器-动态修改Bean对象 执行顺序3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring后置处理器-动态修改BeanDefinition注册信息 执行顺序1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanDefinitionRegistryPostProcessor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属于BeanDefinitionRegistryPostProcessor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConfigurationClassParser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析@Configuration注解的配置类，产生一组ConfigurationClass对象
+处理@import注解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpringBoot自动装配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConfigurationClassParser中处理import注解，同时调用DeferredImportSelector.Group实现类中的process方法
+，进而调用AutoConfigurationImportSelector.getAutoConfigurationEntry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImportSelector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeferredImportSelector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mport注解的值可以是ImportSelector或者DeferredImportSelector的实现类，spring容器会实例化这个实现类，并执行其selectImports方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在@ImportResource、@Bean等注解处理之前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在@ImportResource、@Bean等注解处理之后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -751,6 +814,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -792,10 +863,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -821,9 +893,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1125,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1537,10 +1611,21 @@
         <v>111</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+      <c r="B29" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1553,8 +1638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1862,10 +1947,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1904,15 +1989,15 @@
     <row r="2" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1922,10 +2007,10 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="G3" s="2"/>
     </row>
@@ -1934,13 +2019,13 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -1950,9 +2035,11 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="135" x14ac:dyDescent="0.15">
@@ -1960,13 +2047,13 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -1976,9 +2063,11 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -1987,29 +2076,37 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>171</v>
+      </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -2018,9 +2115,11 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F11" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="F11" t="s">
+        <v>162</v>
+      </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -2029,10 +2128,10 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -2040,77 +2139,97 @@
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
-        <v>151</v>
+        <v>175</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="D18" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2119,30 +2238,18 @@
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
-        <v>150</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -2174,11 +2281,19 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" t="s">
+        <v>138</v>
+      </c>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -2201,19 +2316,11 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
-      <c r="B28" s="2" t="s">
-        <v>136</v>
-      </c>
+      <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F28" t="s">
-        <v>138</v>
-      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
@@ -2243,35 +2350,12 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1"/>
+    <hyperlink ref="E17" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/springboot/springnote.xlsx
+++ b/springboot/springnote.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946008E5-A5C3-469B-B5F0-C57127B9A412}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="188">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -715,10 +716,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Spring后置处理器-动态修改Bean对象 执行顺序3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Spring后置处理器-动态修改BeanDefinition注册信息 执行顺序1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -770,13 +767,65 @@
   </si>
   <si>
     <t>在@ImportResource、@Bean等注解处理之后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring生命周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InstantiationAwareBeanPostProcessorAdapter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring后置处理器-执行Bean初始化前动作，对象属性赋值等，执行顺序3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postProcessBeforeInstantiation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postProcessAfterInstantiation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring后置处理器-动态修改Bean对象 执行顺序5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring后置处理器-执行顺序6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring后置处理器- 执行顺序4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.实例化BeanFactoryPostProcessor
+2.执行BeanFactoryPostProcessor的postProcessBeanFactory
+3.实例化BeanPostProcessor
+4.实例化InstantiationAwareBeanPostProcessorAdapter
+5.执行InstantiationAwareBeanPostProcessor的postProcessBeforeInstantiation
+6.执行Bean的构造器
+7.执行InstantiationAwareBeanPostProcessor的postProcessPropertyValues
+8.为Bean注入属性
+9.调用BeanNameAware的SetBeanName
+10.调用BeanFactoryAware的SetBeanFactory
+11.执行beanPostProcessor的postProcessBeforeInstantiation
+12.调用InitializingBean的afterPropertySet方法
+13.调用Bean init-method方法指定的初始化方法
+14.执行beanPostProcessor的postProcessAfterInstantiation
+15.执行InstantiationAwareBeanPostProcessor的postProcessAfterInstantiation
+16.调用DiposibleBean的Destory方法
+17.调用destory-method方法指定的初始化方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -955,7 +1004,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -988,9 +1037,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1023,6 +1089,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1198,23 +1281,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.625" customWidth="1"/>
-    <col min="3" max="3" width="52" customWidth="1"/>
-    <col min="4" max="4" width="55.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.6328125" customWidth="1"/>
+    <col min="3" max="3" width="58.26953125" customWidth="1"/>
+    <col min="4" max="4" width="55.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1231,7 +1314,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1248,7 +1331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="42" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1263,7 +1346,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1278,7 +1361,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1291,7 +1374,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1304,7 +1387,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1317,7 +1400,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1330,7 +1413,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1347,7 +1430,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="42" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1360,7 +1443,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1373,7 +1456,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1386,7 +1469,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1399,7 +1482,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1416,7 +1499,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1429,7 +1512,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1442,7 +1525,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1457,7 +1540,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1470,7 +1553,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1483,7 +1566,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="70" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -1498,7 +1581,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1513,7 +1596,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1528,7 +1611,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1543,7 +1626,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="42" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -1558,7 +1641,7 @@
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1573,7 +1656,7 @@
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -1588,7 +1671,7 @@
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -1603,7 +1686,7 @@
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -1616,16 +1699,27 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="70" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" ht="280" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1635,23 +1729,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.625" customWidth="1"/>
-    <col min="3" max="3" width="62.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.5" customWidth="1"/>
-    <col min="5" max="5" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6328125" customWidth="1"/>
+    <col min="3" max="3" width="62.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.453125" customWidth="1"/>
+    <col min="5" max="5" width="34.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -1671,7 +1765,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>47</v>
@@ -1687,7 +1781,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>42</v>
@@ -1703,7 +1797,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>49</v>
@@ -1719,7 +1813,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>55</v>
@@ -1735,7 +1829,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>63</v>
@@ -1753,7 +1847,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>60</v>
@@ -1771,7 +1865,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>69</v>
@@ -1783,7 +1877,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>75</v>
@@ -1795,7 +1889,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" s="10" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" s="10" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
         <v>81</v>
@@ -1809,7 +1903,7 @@
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>103</v>
@@ -1821,7 +1915,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>112</v>
@@ -1835,7 +1929,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>115</v>
@@ -1847,7 +1941,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="56" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="4" t="s">
         <v>120</v>
@@ -1859,7 +1953,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>119</v>
@@ -1871,7 +1965,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>121</v>
@@ -1883,7 +1977,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1891,7 +1985,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1899,7 +1993,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1907,7 +2001,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1915,7 +2009,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1923,7 +2017,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1931,7 +2025,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1946,24 +2040,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
-    <col min="5" max="5" width="47.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="62" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.6328125" customWidth="1"/>
+    <col min="5" max="5" width="47.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="69" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
@@ -1986,7 +2080,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="70" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>142</v>
@@ -2001,7 +2095,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="42" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2014,7 +2108,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="42" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2029,7 +2123,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2042,7 +2136,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="135" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="140" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2057,7 +2151,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2070,7 +2164,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2083,7 +2177,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="28" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2096,20 +2190,20 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="42" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>171</v>
-      </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2122,7 +2216,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2131,24 +2225,24 @@
         <v>163</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2161,98 +2255,118 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E15" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="F15" s="2" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
-        <v>176</v>
-      </c>
+      <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>177</v>
+        <v>164</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="42" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="F17" s="4" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="42" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2261,7 +2375,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2270,7 +2384,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2279,24 +2393,16 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="2" t="s">
-        <v>136</v>
-      </c>
+      <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F25" t="s">
-        <v>138</v>
-      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2305,7 +2411,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2314,16 +2420,24 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28" t="s">
+        <v>138</v>
+      </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2332,7 +2446,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2341,7 +2455,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2350,12 +2464,40 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E16" r:id="rId1"/>
-    <hyperlink ref="E17" r:id="rId2"/>
+    <hyperlink ref="E19" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E20" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/springboot/springnote.xlsx
+++ b/springboot/springnote.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946008E5-A5C3-469B-B5F0-C57127B9A412}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E4751B-1A55-4596-9750-939A2A80B02B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="springnote模块" sheetId="3" r:id="rId2"/>
     <sheet name="springboot结构解析" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" iterate="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="187">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -717,10 +717,6 @@
   </si>
   <si>
     <t>Spring后置处理器-动态修改BeanDefinition注册信息 执行顺序1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeanDefinitionRegistryPostProcessor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1284,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1596,7 +1592,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1626,7 +1622,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -1656,7 +1652,7 @@
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -1699,13 +1695,13 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="70" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1713,10 +1709,10 @@
     <row r="30" spans="1:5" ht="280" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -2043,8 +2039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2190,16 +2186,16 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="28" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="G10" s="2"/>
     </row>
@@ -2225,7 +2221,7 @@
         <v>163</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -2234,7 +2230,7 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
@@ -2260,13 +2256,13 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="G15" s="2"/>
     </row>
@@ -2278,10 +2274,10 @@
         <v>164</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G16" s="2"/>
     </row>
@@ -2293,10 +2289,10 @@
         <v>103</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="G17" s="2"/>
     </row>
@@ -2305,45 +2301,45 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" ht="42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="28" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="28" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G20" s="2"/>
     </row>

--- a/springboot/springnote.xlsx
+++ b/springboot/springnote.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E4751B-1A55-4596-9750-939A2A80B02B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAC3015-F6AA-4B39-98FC-28B8DF3D596D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="springnote模块" sheetId="3" r:id="rId2"/>
     <sheet name="springboot结构解析" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029" iterate="1"/>
 </workbook>
 </file>
 
@@ -2039,8 +2039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>

--- a/springboot/springnote.xlsx
+++ b/springboot/springnote.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAC3015-F6AA-4B39-98FC-28B8DF3D596D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7C277F-1164-42EE-9620-984ACCF866BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="198">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -815,6 +815,55 @@
 15.执行InstantiationAwareBeanPostProcessor的postProcessAfterInstantiation
 16.调用DiposibleBean的Destory方法
 17.调用destory-method方法指定的初始化方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring检索配置类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>org.springframework.context.annotation.ConfigurationClassPostProcessor#processConfigBeanDefinitions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring检索component</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClassPathScanningCandidateComponentProvider#scanCandidateComponents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析配置类@Configuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先检索到app.java（源配置类），然后在ConfigurationClassParser解析app.java中的配置路径，生成扫描对象componetscan，然后扫描其他被@configuration,@componet,@service等注解修饰的类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫描bean载入流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ConfigurationClassPostProcessor#processConfigBeanDefinitions-&gt;ConfigurationClassParser#parse#doProcessConfigurationClass-&gt;componentScanParser.parse-&gt;doscan
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析@bean注解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConfigurationClassPostProcessor-》			
+327行this.reader.loadBeanDefinitions(configClasses);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一步retrieveBeanMethodMetadata收集有@bean注解的方法
+第二步将方法封装成BeanMethod对象
+第三步存放至ConfigurationClass的Set&lt;BeanMethod&gt; beanMethods的队列中
+第四步ConfigurationClassBeanDefinitionReader#loadBeanDefinitions注入spring容器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -884,7 +933,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -907,12 +956,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -939,6 +1001,23 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1278,10 +1357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1696,31 +1775,85 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" ht="56" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="5" t="s">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
     </row>
     <row r="30" spans="1:5" ht="280" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="5" t="s">
+      <c r="A30" s="17"/>
+      <c r="B30" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+    </row>
+    <row r="31" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+    </row>
+    <row r="32" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+      <c r="B32" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="56" x14ac:dyDescent="0.25">
+      <c r="B33" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="70" x14ac:dyDescent="0.25">
+      <c r="B34" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="B35" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>197</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B33" r:id="rId1" xr:uid="{AE52058B-3262-4894-928C-8C71AD983095}"/>
+    <hyperlink ref="B35" r:id="rId2" xr:uid="{9CA97E50-0A5F-40FF-B8A0-9C1C00B0AF79}"/>
+    <hyperlink ref="D35" r:id="rId3" xr:uid="{2F1C0F64-77A1-41CC-93EA-03977ED604A1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1729,7 +1862,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2039,8 +2172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
